--- a/EstadisticasNBA.xlsx
+++ b/EstadisticasNBA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nombre Jugador</t>
   </si>
@@ -23,7 +23,10 @@
     <t>Nº Tiros de 3</t>
   </si>
   <si>
-    <t>Tiros Totales</t>
+    <t>Tiros de 2 metidos</t>
+  </si>
+  <si>
+    <t>Tiros de 3 metidos</t>
   </si>
   <si>
     <t>%FG</t>
@@ -38,16 +41,19 @@
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
-    <t>8</t>
+    <t>1</t>
   </si>
   <si>
-    <t>100,00</t>
+    <t>2</t>
   </si>
   <si>
-    <t>131,25</t>
+    <t>233,33</t>
+  </si>
+  <si>
+    <t>300,00</t>
   </si>
 </sst>
 </file>
@@ -111,18 +117,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="30.0" customWidth="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="2" max="2" width="12.609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.0" customWidth="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.0" customHeight="true">
+    <row r="1" ht="25.0" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -141,25 +151,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/EstadisticasNBA.xlsx
+++ b/EstadisticasNBA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Nombre Jugador</t>
   </si>
@@ -23,37 +23,67 @@
     <t>Nº Tiros de 3</t>
   </si>
   <si>
+    <t>Nº Tiros Libres</t>
+  </si>
+  <si>
     <t>Tiros de 2 metidos</t>
   </si>
   <si>
     <t>Tiros de 3 metidos</t>
   </si>
   <si>
+    <t>Tiros Libres metidos</t>
+  </si>
+  <si>
     <t>%FG</t>
   </si>
   <si>
     <t>%eFG</t>
   </si>
   <si>
+    <t>%TS</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>166,67</t>
+  </si>
+  <si>
+    <t>183,33</t>
+  </si>
+  <si>
+    <t>43,60</t>
+  </si>
+  <si>
+    <t>Promedios</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>233,33</t>
-  </si>
-  <si>
-    <t>300,00</t>
+    <t>400,00</t>
+  </si>
+  <si>
+    <t>475,00</t>
+  </si>
+  <si>
+    <t>34,72</t>
   </si>
 </sst>
 </file>
@@ -61,13 +91,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -106,9 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -117,19 +156,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.0" customWidth="true"/>
-    <col min="2" max="2" width="20.0" customWidth="true"/>
-    <col min="3" max="3" width="20.0" customWidth="true"/>
-    <col min="4" max="4" width="20.0" customWidth="true"/>
-    <col min="5" max="5" width="20.0" customWidth="true"/>
-    <col min="6" max="6" width="20.0" customWidth="true"/>
-    <col min="7" max="7" width="20.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="20.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.0" customHeight="true">
@@ -154,28 +196,110 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s" s="1">
         <v>12</v>
       </c>
       <c r="G2" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>13</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/EstadisticasNBA.xlsx
+++ b/EstadisticasNBA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Nombre Jugador</t>
   </si>
@@ -44,46 +44,40 @@
     <t>%TS</t>
   </si>
   <si>
+    <t>Valoracion</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>166,67</t>
-  </si>
-  <si>
     <t>183,33</t>
   </si>
   <si>
-    <t>43,60</t>
+    <t>233,33</t>
+  </si>
+  <si>
+    <t>46,58</t>
+  </si>
+  <si>
+    <t>5.0</t>
   </si>
   <si>
     <t>Promedios</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>475,00</t>
-  </si>
-  <si>
-    <t>34,72</t>
   </si>
 </sst>
 </file>
@@ -91,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -105,12 +99,6 @@
       <b val="true"/>
       <color indexed="12"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -142,12 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -156,22 +141,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="1" max="1" width="20.0" customWidth="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+    <col min="8" max="8" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="20.0" customWidth="true"/>
+    <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="11" max="11" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.0" customHeight="true">
@@ -205,101 +191,78 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="1">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="K2" t="s" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s" s="2">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.0</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G3" t="n">
         <v>1.0</v>
       </c>
-      <c r="G4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="H3" t="n">
         <v>0.0</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I3" t="n">
         <v>0.0</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J3" t="n">
         <v>0.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/EstadisticasNBA.xlsx
+++ b/EstadisticasNBA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Nombre Jugador</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>Promedios</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>250,00</t>
+  </si>
+  <si>
+    <t>300,00</t>
+  </si>
+  <si>
+    <t>34,72</t>
+  </si>
+  <si>
+    <t>9.0</t>
   </si>
 </sst>
 </file>
@@ -85,13 +103,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -130,9 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -141,23 +168,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.0" customWidth="true"/>
-    <col min="2" max="2" width="20.0" customWidth="true"/>
-    <col min="3" max="3" width="20.0" customWidth="true"/>
-    <col min="4" max="4" width="20.0" customWidth="true"/>
-    <col min="5" max="5" width="20.0" customWidth="true"/>
-    <col min="6" max="6" width="20.0" customWidth="true"/>
-    <col min="7" max="7" width="20.0" customWidth="true"/>
-    <col min="8" max="8" width="20.0" customWidth="true"/>
-    <col min="9" max="9" width="20.0" customWidth="true"/>
-    <col min="10" max="10" width="20.0" customWidth="true"/>
-    <col min="11" max="11" width="20.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="20.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.0" customHeight="true">
@@ -231,38 +258,73 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.0</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="E4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.0</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>0.0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>0.0</v>
       </c>
-      <c r="K3" t="n">
-        <v>5.0</v>
+      <c r="K4" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
